--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3439338.438330637</v>
+        <v>3435033.315333568</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
-        <v>61.57494829067528</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>130.1712092340063</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>32.4485456448516</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>136.1081665067959</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>79.81699759019516</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760014</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>117.7011658565453</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.41327245452435</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074786</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>62.60701437185472</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>40.05337266685454</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8.474227393870965</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589145</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>19.32428109308959</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>203.1039635585485</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1903253170497891</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>81.75447633235345</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>31.68046530976816</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.29550035394</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>265.9042934353369</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>18.93832930943095</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1897,10 +1897,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>78.13809416960285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>18.16423677622421</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>106.5290632934504</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V25" t="n">
-        <v>140.3829797864969</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>162.8100151868394</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>71.79687029690999</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>72.26558381699965</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>41.55695577161148</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>158.2465685970621</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>162.1944220709591</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>35.88641949135544</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>60.32297266393842</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.1060369005845</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>338.1060369005845</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>338.1060369005845</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>338.1060369005845</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513811</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
         <v>141.7407511348962</v>
@@ -4327,55 +4327,55 @@
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823979</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659131</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659131</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="V2" t="n">
-        <v>338.1060369005845</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="W2" t="n">
-        <v>338.1060369005845</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="X2" t="n">
-        <v>338.1060369005845</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>338.1060369005845</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.53661367296053</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296053</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296053</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296053</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264281</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810244</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810244</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="U3" t="n">
-        <v>525.6547321810244</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="V3" t="n">
-        <v>336.2349471645396</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="W3" t="n">
-        <v>336.2349471645396</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="X3" t="n">
-        <v>198.7519506930286</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="Y3" t="n">
-        <v>198.7519506930286</v>
+        <v>676.9378076264277</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170722</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.994975598235</v>
+        <v>551.7154484413649</v>
       </c>
       <c r="C5" t="n">
-        <v>1586.994975598235</v>
+        <v>551.7154484413649</v>
       </c>
       <c r="D5" t="n">
-        <v>1228.729276991485</v>
+        <v>551.7154484413649</v>
       </c>
       <c r="E5" t="n">
-        <v>842.9410243932407</v>
+        <v>551.7154484413649</v>
       </c>
       <c r="F5" t="n">
-        <v>762.3177945041547</v>
+        <v>544.7699476921614</v>
       </c>
       <c r="G5" t="n">
-        <v>345.9017493182462</v>
+        <v>128.353902506253</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675775</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675785</v>
       </c>
       <c r="J5" t="n">
         <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746988</v>
+        <v>277.9807166746992</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030777</v>
+        <v>521.2049416030789</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709195</v>
+        <v>823.5081935709225</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582754</v>
+        <v>1135.316836582758</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079242</v>
+        <v>1416.413635079246</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332761</v>
+        <v>1621.822248332766</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837887</v>
+        <v>1727.902815837892</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837887</v>
+        <v>1727.902815837892</v>
       </c>
       <c r="S5" t="n">
-        <v>1586.994975598235</v>
+        <v>1727.902815837892</v>
       </c>
       <c r="T5" t="n">
-        <v>1586.994975598235</v>
+        <v>1727.902815837892</v>
       </c>
       <c r="U5" t="n">
-        <v>1586.994975598235</v>
+        <v>1609.012749316129</v>
       </c>
       <c r="V5" t="n">
-        <v>1586.994975598235</v>
+        <v>1277.949861972559</v>
       </c>
       <c r="W5" t="n">
-        <v>1586.994975598235</v>
+        <v>925.1812067024448</v>
       </c>
       <c r="X5" t="n">
-        <v>1586.994975598235</v>
+        <v>551.7154484413649</v>
       </c>
       <c r="Y5" t="n">
-        <v>1586.994975598235</v>
+        <v>551.7154484413649</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651.8650854624955</v>
+        <v>517.1829502645916</v>
       </c>
       <c r="C6" t="n">
-        <v>477.4120561813684</v>
+        <v>342.7299209834646</v>
       </c>
       <c r="D6" t="n">
-        <v>477.4120561813684</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="E6" t="n">
-        <v>318.1746011759129</v>
+        <v>34.55805631675785</v>
       </c>
       <c r="F6" t="n">
-        <v>171.6400432027979</v>
+        <v>34.55805631675785</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675785</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675785</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675785</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787555</v>
+        <v>61.66788464787585</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806068</v>
+        <v>186.1577239806074</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189987</v>
+        <v>399.8722171189999</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223514</v>
+        <v>668.6238185223531</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352498</v>
+        <v>958.897120035252</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.220686228324</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.176233639514</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703776</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="S6" t="n">
-        <v>1401.100270703776</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="T6" t="n">
-        <v>1401.100270703776</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="U6" t="n">
-        <v>1172.985128659333</v>
+        <v>1382.639252450137</v>
       </c>
       <c r="V6" t="n">
-        <v>937.8330204275903</v>
+        <v>1147.487144218394</v>
       </c>
       <c r="W6" t="n">
-        <v>683.5956636993888</v>
+        <v>893.2497874901924</v>
       </c>
       <c r="X6" t="n">
-        <v>683.5956636993888</v>
+        <v>685.3982872846595</v>
       </c>
       <c r="Y6" t="n">
-        <v>683.5956636993888</v>
+        <v>685.3982872846595</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.11788196713246</v>
+        <v>369.8190495858033</v>
       </c>
       <c r="C7" t="n">
-        <v>43.11788196713246</v>
+        <v>369.8190495858033</v>
       </c>
       <c r="D7" t="n">
-        <v>43.11788196713246</v>
+        <v>329.3610973970613</v>
       </c>
       <c r="E7" t="n">
-        <v>43.11788196713246</v>
+        <v>181.4480038146682</v>
       </c>
       <c r="F7" t="n">
-        <v>43.11788196713246</v>
+        <v>34.55805631675785</v>
       </c>
       <c r="G7" t="n">
-        <v>43.11788196713246</v>
+        <v>34.55805631675785</v>
       </c>
       <c r="H7" t="n">
-        <v>43.11788196713246</v>
+        <v>34.55805631675785</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675785</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675775</v>
+        <v>34.55805631675785</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574714</v>
+        <v>64.24066662574744</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158412</v>
+        <v>132.1299861584125</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347978</v>
+        <v>206.9680378347987</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195375</v>
+        <v>287.8841338195386</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934727</v>
+        <v>342.3101561934741</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495858033</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040931</v>
+        <v>369.8190495858033</v>
       </c>
       <c r="R7" t="n">
-        <v>332.5350520040931</v>
+        <v>369.8190495858033</v>
       </c>
       <c r="S7" t="n">
-        <v>332.5350520040931</v>
+        <v>369.8190495858033</v>
       </c>
       <c r="T7" t="n">
-        <v>332.5350520040931</v>
+        <v>369.8190495858033</v>
       </c>
       <c r="U7" t="n">
-        <v>332.5350520040931</v>
+        <v>369.8190495858033</v>
       </c>
       <c r="V7" t="n">
-        <v>332.5350520040931</v>
+        <v>369.8190495858033</v>
       </c>
       <c r="W7" t="n">
-        <v>43.11788196713246</v>
+        <v>369.8190495858033</v>
       </c>
       <c r="X7" t="n">
-        <v>43.11788196713246</v>
+        <v>369.8190495858033</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.11788196713246</v>
+        <v>369.8190495858033</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1276.259573317582</v>
+        <v>334.4233539899546</v>
       </c>
       <c r="C8" t="n">
-        <v>1256.740097465976</v>
+        <v>334.4233539899546</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.740097465976</v>
+        <v>334.4233539899546</v>
       </c>
       <c r="E8" t="n">
-        <v>1256.740097465976</v>
+        <v>334.4233539899546</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763688</v>
+        <v>327.4778532407511</v>
       </c>
       <c r="G8" t="n">
-        <v>429.723147379776</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947426</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4831,25 +4831,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.325171642784</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>2036.325171642784</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.859413381704</v>
+        <v>1111.162526029888</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.859413381704</v>
+        <v>721.0231940540764</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>660.6624803776745</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>486.2094510965475</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>486.0172033015477</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>326.7797482960922</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
         <v>43.36919653809306</v>
@@ -4883,16 +4883,16 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4901,34 +4901,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1539.52797744664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1311.426387579904</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1076.274279348161</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1076.274279348161</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>868.4227791426283</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>660.6624803776745</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>273.8625692440755</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="C10" t="n">
-        <v>273.8625692440755</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D10" t="n">
-        <v>273.8625692440755</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E10" t="n">
-        <v>125.9494756616824</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>125.9494756616824</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>125.9494756616824</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>125.9494756616824</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
         <v>43.36919653809306</v>
@@ -4965,49 +4965,49 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514519</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514519</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514519</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="T10" t="n">
-        <v>273.8625692440755</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="U10" t="n">
-        <v>273.8625692440755</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="V10" t="n">
-        <v>273.8625692440755</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="W10" t="n">
-        <v>273.8625692440755</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="X10" t="n">
-        <v>273.8625692440755</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="Y10" t="n">
-        <v>273.8625692440755</v>
+        <v>488.2888770307322</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,10 +5044,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>492.0395788753862</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>345.1496313774758</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.9535320923557</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1415.011708352283</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>489.8360330454435</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>341.9229394630504</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>195.03299196514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1029.681434529217</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C19" t="n">
-        <v>860.74525160131</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6286121889742</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y19" t="n">
-        <v>1211.329899359456</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.826443164475</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.409273127515</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229497</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2160.315914855604</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991042</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1268.904861472874</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2191.112710026075</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6791,7 +6791,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356194</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2104.263230450254</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>2104.263230450254</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1849.578742244367</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1560.161572207406</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1332.172021309389</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7311,16 +7311,16 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474262</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>114.9565346495158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.9745311434712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>701.0383482155643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>550.9217088032285</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015258</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.415575117241</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.622995973711</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>56.99921249228389</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>20.61870490125415</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>146.5858089828379</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>68.29586847696632</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>147.3599015160446</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>145.6085800303777</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V25" t="n">
-        <v>111.7546635373311</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>62.89964020219773</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>73.62417772602126</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>145.1398665102886</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>59.1588817302262</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>55.21102825632917</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>144.5956654067404</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>250.2980548978887</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>86.11098998263074</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.543869563</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681144.543869563</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>681144.543869563</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.543869563</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244619</v>
@@ -26322,40 +26322,40 @@
         <v>759463.6371244615</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.604713255</v>
-      </c>
       <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132554</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253131</v>
+        <v>270592.3620253146</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.054023192</v>
+        <v>115410.0540231908</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742651</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1.767800767993322e-10</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881997</v>
+        <v>62913.63765882027</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197468</v>
+        <v>27875.25362197437</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515979</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926346</v>
+        <v>206604.4229263456</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26450,7 +26450,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26459,7 +26459,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936825</v>
+        <v>76435.73471936834</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167415.6306421268</v>
+        <v>-167415.6306421266</v>
       </c>
       <c r="C6" t="n">
-        <v>205831.1174534345</v>
+        <v>205831.1174534334</v>
       </c>
       <c r="D6" t="n">
-        <v>384651.5111564995</v>
+        <v>384651.5111565007</v>
       </c>
       <c r="E6" t="n">
-        <v>27998.28334319116</v>
+        <v>27650.90408883386</v>
       </c>
       <c r="F6" t="n">
-        <v>629441.4909174556</v>
+        <v>629094.1116630993</v>
       </c>
       <c r="G6" t="n">
-        <v>629441.4909174559</v>
+        <v>629094.111663099</v>
       </c>
       <c r="H6" t="n">
-        <v>629441.4909174563</v>
+        <v>629094.1116630991</v>
       </c>
       <c r="I6" t="n">
-        <v>629441.4909174563</v>
+        <v>629094.1116630991</v>
       </c>
       <c r="J6" t="n">
-        <v>580376.5461889117</v>
+        <v>580029.1669345547</v>
       </c>
       <c r="K6" t="n">
-        <v>566527.8532586358</v>
+        <v>566180.474004279</v>
       </c>
       <c r="L6" t="n">
-        <v>601566.2372954816</v>
+        <v>601218.8580411252</v>
       </c>
       <c r="M6" t="n">
-        <v>472295.1103658584</v>
+        <v>471947.7311115016</v>
       </c>
       <c r="N6" t="n">
-        <v>629441.4909174562</v>
+        <v>629094.1116630995</v>
       </c>
       <c r="O6" t="n">
-        <v>629441.4909174562</v>
+        <v>629094.1116630994</v>
       </c>
       <c r="P6" t="n">
-        <v>629441.4909174561</v>
+        <v>629094.1116630994</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950623</v>
+        <v>758.8996292950633</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594718</v>
+        <v>431.9757039594731</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26804,25 +26804,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821576</v>
+        <v>210.4296883821587</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262176</v>
+        <v>94.81103524262085</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039895</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931533</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666913</v>
+        <v>110.1392527666901</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931521</v>
+        <v>244.4501167931533</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666913</v>
+        <v>110.1392527666901</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734849</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931519</v>
+        <v>244.4501167931533</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666913</v>
+        <v>110.1392527666901</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988683</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V2" t="n">
-        <v>266.1773101794596</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>239.5598914444627</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>134.0846380050157</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27481,7 +27481,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>69.66481869668155</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>96.39952676377791</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,16 +27578,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>154.5643095410617</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>327.0590481515163</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760031</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425892</v>
+        <v>23.94240680425867</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>133.4004188288043</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135.119911195343</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>96.47037835246128</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493751</v>
+        <v>43.32085084937502</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074772</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
@@ -27751,7 +27751,7 @@
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>163.2269762521444</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>108.5621003513578</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>105.821493866042</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304041</v>
+        <v>30.24193919304027</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589129</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166223</v>
@@ -27830,13 +27830,13 @@
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>345.9486106779179</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>208.7667712850783</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
@@ -27912,16 +27912,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.254740247589</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5435940233622</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28031,10 +28031,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>27.39968911473009</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>76.39238595587042</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085675</v>
+        <v>3.050852781085679</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429368</v>
+        <v>31.24454604429372</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428058</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286706</v>
+        <v>258.9373162286709</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520273</v>
+        <v>388.0799144520278</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511781</v>
+        <v>481.4474502511787</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968104</v>
+        <v>535.7030533968111</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610702</v>
+        <v>544.3712888610709</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191494</v>
+        <v>514.0343715191501</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860968</v>
+        <v>438.7164434860974</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634659</v>
+        <v>329.4577782634664</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098735</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489899</v>
+        <v>69.52130774898998</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920257</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868539</v>
+        <v>0.2440682224868543</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.632350146030891</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403516</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.2015291506249</v>
+        <v>56.20152915062498</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.221291647594</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316633</v>
+        <v>263.5887514316636</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721893</v>
+        <v>354.4276051721897</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658089</v>
+        <v>413.6002979658094</v>
       </c>
       <c r="N6" t="n">
-        <v>424.547067146867</v>
+        <v>424.5470671468676</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374457</v>
+        <v>388.3776244374462</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872497</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547502</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947723</v>
+        <v>30.32018801947727</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378887</v>
+        <v>6.579516597378896</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377988</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734535</v>
+        <v>41.15475366734541</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463557</v>
+        <v>96.75348224635584</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162535</v>
       </c>
       <c r="M7" t="n">
-        <v>214.519775539914</v>
+        <v>214.5197755399143</v>
       </c>
       <c r="N7" t="n">
-        <v>209.418974752849</v>
+        <v>209.4189747528493</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275349</v>
+        <v>193.4323186275352</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650515003</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235546</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054716</v>
+        <v>61.53307486054724</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391203</v>
+        <v>23.84935392391206</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830806</v>
+        <v>5.847259438830814</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656358</v>
+        <v>0.07464586517656369</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31530,10 +31530,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31542,22 +31542,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31609,19 +31609,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31630,10 +31630,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31679,22 +31679,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31706,13 +31706,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717718</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968503</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32098,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,7 +33985,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>270.3182595810212</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198428</v>
+        <v>77.89141170198462</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070467</v>
+        <v>167.9900634070472</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811909</v>
+        <v>245.6810352811915</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695377</v>
+        <v>305.3568201695384</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644793</v>
+        <v>314.9582252644799</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974627</v>
+        <v>283.9361600974634</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308272</v>
+        <v>207.4834477308278</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890164</v>
+        <v>107.1520883890169</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092708</v>
+        <v>27.38366498092728</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573043</v>
+        <v>125.7473124573046</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923151</v>
+        <v>215.8732253923155</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437905</v>
+        <v>271.4662640437911</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635337</v>
+        <v>293.2053550635343</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930012</v>
+        <v>245.7813799930018</v>
       </c>
       <c r="P6" t="n">
-        <v>177.732876172919</v>
+        <v>177.7328761729195</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872844</v>
+        <v>68.38629016872872</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554484</v>
+        <v>29.98243465554503</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501498</v>
+        <v>68.57507023501526</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230898</v>
+        <v>75.59399159230927</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761582</v>
+        <v>81.7334302876161</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569214</v>
+        <v>54.97578017569242</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235245</v>
+        <v>27.78676100235265</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35190,7 +35190,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35260,7 +35260,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35272,7 +35272,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884385</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748321</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35746,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>71.39556506237767</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,7 +37633,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3364854949997</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3435033.315333568</v>
+        <v>3436793.845636354</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7865233.983490889</v>
+        <v>7865233.983490888</v>
       </c>
     </row>
     <row r="11">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>81.21477241771925</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>130.1712092340063</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.4485456448516</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>55.91281647716725</v>
       </c>
     </row>
     <row r="4">
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>52.21594625443444</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>100.6348047939966</v>
       </c>
       <c r="G5" t="n">
         <v>412.2518847340494</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760014</v>
+        <v>92.8578877276002</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425875</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>117.7011658565453</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246128</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937505</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>62.60701437185472</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>126.6212654959713</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>40.05337266685454</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>119.3342385144915</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304031</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589135</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>203.1039635585485</v>
+        <v>221.0873443692306</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>78.16360657708299</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.27697994470635</v>
+        <v>125.017150476759</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1299,22 +1299,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>25.09249854744494</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>31.68046530976816</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.29550035394</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.26558381699925</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>18.16423677622421</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>181.3074675142866</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>34.22340015155905</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>71.79687029690999</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="F34" t="n">
-        <v>41.55695577161148</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>1.799772605716168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>246.8141177896371</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20.9284728855285</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.9163864599159</v>
+        <v>103.9826713767709</v>
       </c>
       <c r="C2" t="n">
-        <v>161.9163864599159</v>
+        <v>103.9826713767709</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>103.9826713767709</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>103.9826713767709</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>97.03717062756745</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
         <v>80.81213159058939</v>
@@ -4339,10 +4339,10 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985582</v>
@@ -4363,7 +4363,7 @@
         <v>482.8222414097404</v>
       </c>
       <c r="U2" t="n">
-        <v>293.4024563932556</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="V2" t="n">
         <v>293.4024563932556</v>
@@ -4372,10 +4372,10 @@
         <v>293.4024563932556</v>
       </c>
       <c r="X2" t="n">
-        <v>161.9163864599159</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="Y2" t="n">
-        <v>161.9163864599159</v>
+        <v>103.9826713767709</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>644.1614988942544</v>
+        <v>335.9896342275476</v>
       </c>
       <c r="C3" t="n">
-        <v>469.7084696131274</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="E3" t="n">
         <v>161.5366049464206</v>
@@ -4418,13 +4418,13 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
         <v>739.598998701706</v>
@@ -4433,28 +4433,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264277</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264277</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264277</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264277</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V3" t="n">
-        <v>676.9378076264277</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W3" t="n">
-        <v>676.9378076264277</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X3" t="n">
-        <v>676.9378076264277</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y3" t="n">
-        <v>676.9378076264277</v>
+        <v>504.2049712476157</v>
       </c>
     </row>
     <row r="4">
@@ -4470,13 +4470,13 @@
         <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G4" t="n">
         <v>15.00204697330559</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>551.7154484413649</v>
+        <v>646.4212656658954</v>
       </c>
       <c r="C5" t="n">
-        <v>551.7154484413649</v>
+        <v>646.4212656658954</v>
       </c>
       <c r="D5" t="n">
-        <v>551.7154484413649</v>
+        <v>646.4212656658954</v>
       </c>
       <c r="E5" t="n">
-        <v>551.7154484413649</v>
+        <v>646.4212656658954</v>
       </c>
       <c r="F5" t="n">
         <v>544.7699476921614</v>
@@ -4564,55 +4564,55 @@
         <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675785</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J5" t="n">
         <v>111.6705539017225</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746992</v>
+        <v>277.9807166746996</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030789</v>
+        <v>521.2049416030791</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709225</v>
+        <v>823.5081935709215</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582758</v>
+        <v>1135.316836582756</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079246</v>
+        <v>1416.413635079245</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332766</v>
+        <v>1621.822248332764</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837892</v>
+        <v>1727.902815837891</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837892</v>
+        <v>1703.71856654066</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837892</v>
+        <v>1703.71856654066</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837892</v>
+        <v>1703.71856654066</v>
       </c>
       <c r="U5" t="n">
-        <v>1609.012749316129</v>
+        <v>1703.71856654066</v>
       </c>
       <c r="V5" t="n">
-        <v>1277.949861972559</v>
+        <v>1372.655679197089</v>
       </c>
       <c r="W5" t="n">
-        <v>925.1812067024448</v>
+        <v>1019.887023926975</v>
       </c>
       <c r="X5" t="n">
-        <v>551.7154484413649</v>
+        <v>646.4212656658954</v>
       </c>
       <c r="Y5" t="n">
-        <v>551.7154484413649</v>
+        <v>646.4212656658954</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>517.1829502645916</v>
+        <v>942.0027569437835</v>
       </c>
       <c r="C6" t="n">
-        <v>342.7299209834646</v>
+        <v>767.5497276626566</v>
       </c>
       <c r="D6" t="n">
-        <v>193.7955113222133</v>
+        <v>618.6153180014053</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675785</v>
+        <v>459.3778629959497</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675785</v>
+        <v>312.8433050228347</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675785</v>
+        <v>175.7613181367945</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675785</v>
+        <v>78.31649151814676</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675785</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787585</v>
+        <v>61.66788464787577</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806074</v>
+        <v>186.1577239806072</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189999</v>
+        <v>399.8722171189995</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223531</v>
+        <v>668.6238185223526</v>
       </c>
       <c r="N6" t="n">
-        <v>958.897120035252</v>
+        <v>958.8971200352514</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228324</v>
+        <v>1202.220686228323</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639514</v>
+        <v>1378.176233639513</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="U6" t="n">
-        <v>1382.639252450137</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.487144218394</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="W6" t="n">
-        <v>893.2497874901924</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="X6" t="n">
-        <v>685.3982872846595</v>
+        <v>1317.978392728805</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.3982872846595</v>
+        <v>1110.218093963852</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858033</v>
+        <v>332.5350520040943</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495858033</v>
+        <v>332.5350520040943</v>
       </c>
       <c r="D7" t="n">
-        <v>329.3610973970613</v>
+        <v>332.5350520040943</v>
       </c>
       <c r="E7" t="n">
-        <v>181.4480038146682</v>
+        <v>332.5350520040943</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675785</v>
+        <v>185.6451045061839</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675785</v>
+        <v>65.10546964306116</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675785</v>
+        <v>65.10546964306116</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675785</v>
+        <v>65.10546964306116</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675785</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574744</v>
+        <v>64.24066662574734</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584125</v>
+        <v>132.1299861584124</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347987</v>
+        <v>206.9680378347984</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195386</v>
+        <v>287.8841338195382</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934741</v>
+        <v>342.3101561934736</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858033</v>
+        <v>369.8190495858027</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858033</v>
+        <v>332.5350520040943</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858033</v>
+        <v>332.5350520040943</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858033</v>
+        <v>332.5350520040943</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858033</v>
+        <v>332.5350520040943</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858033</v>
+        <v>332.5350520040943</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858033</v>
+        <v>332.5350520040943</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858033</v>
+        <v>332.5350520040943</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858033</v>
+        <v>332.5350520040943</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858033</v>
+        <v>332.5350520040943</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>334.4233539899546</v>
+        <v>1018.25489660364</v>
       </c>
       <c r="C8" t="n">
-        <v>334.4233539899546</v>
+        <v>1018.25489660364</v>
       </c>
       <c r="D8" t="n">
-        <v>334.4233539899546</v>
+        <v>659.9891979968891</v>
       </c>
       <c r="E8" t="n">
-        <v>334.4233539899546</v>
+        <v>659.9891979968891</v>
       </c>
       <c r="F8" t="n">
-        <v>327.4778532407511</v>
+        <v>653.0436972476856</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
         <v>122.3223344947425</v>
@@ -4804,13 +4804,13 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4840,16 +4840,16 @@
         <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290968</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X8" t="n">
-        <v>1111.162526029888</v>
+        <v>1794.994068643573</v>
       </c>
       <c r="Y8" t="n">
-        <v>721.0231940540764</v>
+        <v>1404.854736667761</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>534.741748045641</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>534.741748045641</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>385.8073383843897</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>226.5698833789342</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4907,28 +4907,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1607.95834899614</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1372.806240764397</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1118.568884036196</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>910.7173838306628</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>702.957085065709</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>488.2888770307322</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>347.3497871391163</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>347.3497871391163</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>347.3497871391163</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>322.003829010384</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
@@ -4983,31 +4983,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>488.2888770307322</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>488.2888770307322</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>488.2888770307322</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>488.2888770307322</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>488.2888770307322</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>488.2888770307322</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>488.2888770307322</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="Y10" t="n">
-        <v>488.2888770307322</v>
+        <v>497.4664265514521</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5041,13 +5041,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,19 +5114,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
         <v>1268.578514636218</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856862</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C13" t="n">
-        <v>639.9526724577793</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D13" t="n">
-        <v>639.9526724577793</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E13" t="n">
-        <v>492.0395788753862</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F13" t="n">
-        <v>345.1496313774758</v>
+        <v>475.720132699984</v>
       </c>
       <c r="G13" t="n">
-        <v>177.9535320923557</v>
+        <v>308.5240334148639</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>166.812202257062</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,22 +5229,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5427,22 +5427,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5509,31 +5509,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958739</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>633.992644467967</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556313</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>335.9629114732381</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>335.9629114732381</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261136</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
@@ -5761,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5940,22 +5940,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2267.47159895366</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>128.3857541101527</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,13 +6484,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647277</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>481.447947124485</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>333.5348535420919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6697,28 +6697,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E34" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,28 +6958,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="41">
@@ -7411,13 +7411,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7648,25 +7648,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>114.9565346495158</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>56.99921249228389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>9.000252501566294</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>138.4949402405078</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>147.3599015160446</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>104.8770068749575</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>106.0713126946648</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>73.62417772602126</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="F34" t="n">
-        <v>103.8640922513198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>144.5956654067404</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.543869563</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.543869563</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681144.543869563</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.543869563</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681144.543869563</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>759463.6371244619</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244615</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="N2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26368,22 +26368,22 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253146</v>
+        <v>270592.3620253141</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231908</v>
+        <v>115410.0540231913</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.207574265</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882027</v>
+        <v>62913.63765882009</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197437</v>
+        <v>27875.25362197452</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515979</v>
@@ -26420,22 +26420,22 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263456</v>
+        <v>206604.4229263457</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26450,10 +26450,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26472,7 +26472,7 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936834</v>
+        <v>76435.73471936831</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26524,46 +26524,46 @@
         <v>-167415.6306421266</v>
       </c>
       <c r="C6" t="n">
-        <v>205831.1174534334</v>
+        <v>205831.1174534338</v>
       </c>
       <c r="D6" t="n">
-        <v>384651.5111565007</v>
+        <v>384651.5111565005</v>
       </c>
       <c r="E6" t="n">
-        <v>27650.90408883386</v>
+        <v>27963.5454177553</v>
       </c>
       <c r="F6" t="n">
-        <v>629094.1116630993</v>
+        <v>629406.7529920205</v>
       </c>
       <c r="G6" t="n">
-        <v>629094.111663099</v>
+        <v>629406.7529920203</v>
       </c>
       <c r="H6" t="n">
-        <v>629094.1116630991</v>
+        <v>629406.7529920203</v>
       </c>
       <c r="I6" t="n">
-        <v>629094.1116630991</v>
+        <v>629406.7529920205</v>
       </c>
       <c r="J6" t="n">
-        <v>580029.1669345547</v>
+        <v>580341.8082634759</v>
       </c>
       <c r="K6" t="n">
-        <v>566180.474004279</v>
+        <v>566493.1153332003</v>
       </c>
       <c r="L6" t="n">
-        <v>601218.8580411252</v>
+        <v>601531.4993700461</v>
       </c>
       <c r="M6" t="n">
-        <v>471947.7311115016</v>
+        <v>472260.3724404225</v>
       </c>
       <c r="N6" t="n">
-        <v>629094.1116630995</v>
+        <v>629406.7529920206</v>
       </c>
       <c r="O6" t="n">
-        <v>629094.1116630994</v>
+        <v>629406.7529920206</v>
       </c>
       <c r="P6" t="n">
-        <v>629094.1116630994</v>
+        <v>629406.7529920205</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950633</v>
+        <v>758.8996292950629</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26792,7 +26792,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594731</v>
+        <v>431.9757039594727</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,22 +26962,22 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821587</v>
+        <v>210.4296883821584</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262085</v>
+        <v>94.81103524262119</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039894</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931533</v>
+        <v>244.4501167931528</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666901</v>
+        <v>110.1392527666905</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931533</v>
+        <v>244.4501167931526</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666901</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734849</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931533</v>
+        <v>244.4501167931528</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666901</v>
+        <v>110.1392527666905</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>331.8830608123388</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871046</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>239.5598914444627</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.0846380050157</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>149.7698793001371</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.39952676377791</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482797</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>306.2412409477148</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425867</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>139.4987618372554</v>
@@ -27672,7 +27672,7 @@
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>133.4004188288043</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246128</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937502</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074772</v>
+        <v>44.33060630074777</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
@@ -27751,19 +27751,19 @@
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>163.2269762521444</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>79.15171970750619</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>108.5621003513578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>47.28823331573025</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
@@ -27797,7 +27797,7 @@
         <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304027</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589129</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166223</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>208.7667712850783</v>
+        <v>190.7833904743962</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27988,7 +27988,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5435940233622</v>
+        <v>100.8034234913096</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28019,22 +28019,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>141.3590025634869</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>76.39238595587042</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.841479272852102e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085679</v>
+        <v>3.050852781085678</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429372</v>
+        <v>31.24454604429371</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428058</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286709</v>
+        <v>258.9373162286708</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520278</v>
+        <v>388.0799144520276</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511787</v>
+        <v>481.4474502511785</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968111</v>
+        <v>535.7030533968109</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610709</v>
+        <v>544.3712888610706</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191501</v>
+        <v>514.0343715191499</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860974</v>
+        <v>438.7164434860971</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634664</v>
+        <v>329.4577782634662</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098735</v>
+        <v>191.6431310098734</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898998</v>
+        <v>69.52130774898995</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920257</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868543</v>
+        <v>0.2440682224868542</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030891</v>
+        <v>1.63235014603089</v>
       </c>
       <c r="H6" t="n">
         <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062498</v>
+        <v>56.20152915062495</v>
       </c>
       <c r="J6" t="n">
-        <v>154.221291647594</v>
+        <v>154.2212916475939</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316636</v>
+        <v>263.5887514316635</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721897</v>
+        <v>354.4276051721896</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658094</v>
+        <v>413.6002979658093</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468676</v>
+        <v>424.5470671468673</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374462</v>
+        <v>388.377624437446</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872497</v>
+        <v>311.7072835872495</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547502</v>
+        <v>208.3680642547501</v>
       </c>
       <c r="R6" t="n">
         <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947727</v>
+        <v>30.32018801947726</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378896</v>
+        <v>6.579516597378892</v>
       </c>
       <c r="U6" t="n">
         <v>0.1073914569757165</v>
@@ -31439,46 +31439,46 @@
         <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377988</v>
+        <v>12.16727602377987</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734541</v>
+        <v>41.15475366734539</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635584</v>
+        <v>96.7534822463558</v>
       </c>
       <c r="K7" t="n">
         <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162535</v>
+        <v>203.4597465162534</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399143</v>
+        <v>214.5197755399142</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528493</v>
+        <v>209.4189747528492</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275352</v>
+        <v>193.4323186275351</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515003</v>
+        <v>165.5147650515002</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235546</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054724</v>
+        <v>61.53307486054721</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391206</v>
+        <v>23.84935392391205</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830814</v>
+        <v>5.847259438830811</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656369</v>
+        <v>0.07464586517656364</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>338.1920576279227</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198462</v>
+        <v>77.89141170198451</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070472</v>
+        <v>167.990063407047</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811915</v>
+        <v>245.6810352811913</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695384</v>
+        <v>305.3568201695382</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644799</v>
+        <v>314.9582252644797</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974634</v>
+        <v>283.9361600974631</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308278</v>
+        <v>207.4834477308276</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890169</v>
+        <v>107.1520883890167</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092728</v>
+        <v>27.38366498092722</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573046</v>
+        <v>125.7473124573045</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923155</v>
+        <v>215.8732253923154</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437911</v>
+        <v>271.4662640437909</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635343</v>
+        <v>293.2053550635341</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930018</v>
+        <v>245.7813799930016</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729195</v>
+        <v>177.7328761729193</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872872</v>
+        <v>68.38629016872861</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554503</v>
+        <v>29.98243465554498</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501526</v>
+        <v>68.57507023501515</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230927</v>
+        <v>75.59399159230915</v>
       </c>
       <c r="N7" t="n">
-        <v>81.7334302876161</v>
+        <v>81.73343028761602</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569242</v>
+        <v>54.97578017569231</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235265</v>
+        <v>27.78676100235259</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>196.0580237059044</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
